--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Slit2-App.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Slit2-App.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1645843333333333</v>
+        <v>0.02743666666666666</v>
       </c>
       <c r="H2">
-        <v>0.493753</v>
+        <v>0.08230999999999999</v>
       </c>
       <c r="I2">
-        <v>0.03485847193389391</v>
+        <v>0.007366285056527356</v>
       </c>
       <c r="J2">
-        <v>0.03485847193389391</v>
+        <v>0.007366285056527356</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>103.4275383333333</v>
+        <v>118.0346986666667</v>
       </c>
       <c r="N2">
-        <v>310.282615</v>
+        <v>354.104096</v>
       </c>
       <c r="O2">
-        <v>0.2485530285127421</v>
+        <v>0.2666057129183408</v>
       </c>
       <c r="P2">
-        <v>0.2485530285127421</v>
+        <v>0.2666057129183408</v>
       </c>
       <c r="Q2">
-        <v>17.02255244489945</v>
+        <v>3.238478682417777</v>
       </c>
       <c r="R2">
-        <v>153.202972004095</v>
+        <v>29.14630814176</v>
       </c>
       <c r="S2">
-        <v>0.008664178768495753</v>
+        <v>0.001963893679055197</v>
       </c>
       <c r="T2">
-        <v>0.008664178768495753</v>
+        <v>0.001963893679055197</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1645843333333333</v>
+        <v>0.02743666666666666</v>
       </c>
       <c r="H3">
-        <v>0.493753</v>
+        <v>0.08230999999999999</v>
       </c>
       <c r="I3">
-        <v>0.03485847193389391</v>
+        <v>0.007366285056527356</v>
       </c>
       <c r="J3">
-        <v>0.03485847193389391</v>
+        <v>0.007366285056527356</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>648.391617</v>
       </c>
       <c r="O3">
-        <v>0.5193964865470273</v>
+        <v>0.4881754016778185</v>
       </c>
       <c r="P3">
-        <v>0.5193964865470272</v>
+        <v>0.4881754016778186</v>
       </c>
       <c r="Q3">
-        <v>35.571700674289</v>
+        <v>5.92990155503</v>
       </c>
       <c r="R3">
-        <v>320.145306068601</v>
+        <v>53.36911399527</v>
       </c>
       <c r="S3">
-        <v>0.01810536784886266</v>
+        <v>0.003596039166343554</v>
       </c>
       <c r="T3">
-        <v>0.01810536784886265</v>
+        <v>0.003596039166343554</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1645843333333333</v>
+        <v>0.02743666666666666</v>
       </c>
       <c r="H4">
-        <v>0.493753</v>
+        <v>0.08230999999999999</v>
       </c>
       <c r="I4">
-        <v>0.03485847193389391</v>
+        <v>0.007366285056527356</v>
       </c>
       <c r="J4">
-        <v>0.03485847193389391</v>
+        <v>0.007366285056527356</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>24.953198</v>
+        <v>45.876452</v>
       </c>
       <c r="N4">
-        <v>74.85959399999999</v>
+        <v>137.629356</v>
       </c>
       <c r="O4">
-        <v>0.05996655275686101</v>
+        <v>0.1036214293744632</v>
       </c>
       <c r="P4">
-        <v>0.059966552756861</v>
+        <v>0.1036214293744632</v>
       </c>
       <c r="Q4">
-        <v>4.106905457364666</v>
+        <v>1.258696921373333</v>
       </c>
       <c r="R4">
-        <v>36.96214911628199</v>
+        <v>11.32827229236</v>
       </c>
       <c r="S4">
-        <v>0.002090342396247408</v>
+        <v>0.0007633049867371129</v>
       </c>
       <c r="T4">
-        <v>0.002090342396247408</v>
+        <v>0.000763304986737113</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1645843333333333</v>
+        <v>0.02743666666666666</v>
       </c>
       <c r="H5">
-        <v>0.493753</v>
+        <v>0.08230999999999999</v>
       </c>
       <c r="I5">
-        <v>0.03485847193389391</v>
+        <v>0.007366285056527356</v>
       </c>
       <c r="J5">
-        <v>0.03485847193389391</v>
+        <v>0.007366285056527356</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>71.607325</v>
+        <v>62.68962833333333</v>
       </c>
       <c r="N5">
-        <v>214.821975</v>
+        <v>188.068885</v>
       </c>
       <c r="O5">
-        <v>0.1720839321833696</v>
+        <v>0.1415974560293775</v>
       </c>
       <c r="P5">
-        <v>0.1720839321833696</v>
+        <v>0.1415974560293775</v>
       </c>
       <c r="Q5">
-        <v>11.78544384690833</v>
+        <v>1.719994436038889</v>
       </c>
       <c r="R5">
-        <v>106.068994622175</v>
+        <v>15.47994992435</v>
       </c>
       <c r="S5">
-        <v>0.005998582920288091</v>
+        <v>0.001043047224391492</v>
       </c>
       <c r="T5">
-        <v>0.005998582920288091</v>
+        <v>0.001043047224391493</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.368329000000001</v>
+        <v>3.368329</v>
       </c>
       <c r="H6">
         <v>10.104987</v>
       </c>
       <c r="I6">
-        <v>0.7134020567608963</v>
+        <v>0.9043398704228307</v>
       </c>
       <c r="J6">
-        <v>0.7134020567608963</v>
+        <v>0.9043398704228307</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>103.4275383333333</v>
+        <v>118.0346986666667</v>
       </c>
       <c r="N6">
-        <v>310.282615</v>
+        <v>354.104096</v>
       </c>
       <c r="O6">
-        <v>0.2485530285127421</v>
+        <v>0.2666057129183408</v>
       </c>
       <c r="P6">
-        <v>0.2485530285127421</v>
+        <v>0.2666057129183408</v>
       </c>
       <c r="Q6">
-        <v>348.3779767667784</v>
+        <v>397.5796985251946</v>
       </c>
       <c r="R6">
-        <v>3135.401790901006</v>
+        <v>3578.217286726751</v>
       </c>
       <c r="S6">
-        <v>0.1773182417551399</v>
+        <v>0.2411021758745588</v>
       </c>
       <c r="T6">
-        <v>0.1773182417551399</v>
+        <v>0.2411021758745588</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.368329000000001</v>
+        <v>3.368329</v>
       </c>
       <c r="H7">
         <v>10.104987</v>
       </c>
       <c r="I7">
-        <v>0.7134020567608963</v>
+        <v>0.9043398704228307</v>
       </c>
       <c r="J7">
-        <v>0.7134020567608963</v>
+        <v>0.9043398704228307</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>648.391617</v>
       </c>
       <c r="O7">
-        <v>0.5193964865470273</v>
+        <v>0.4881754016778185</v>
       </c>
       <c r="P7">
-        <v>0.5193964865470272</v>
+        <v>0.4881754016778186</v>
       </c>
       <c r="Q7">
-        <v>727.9987622993311</v>
+        <v>727.9987622993309</v>
       </c>
       <c r="R7">
-        <v>6551.988860693979</v>
+        <v>6551.988860693978</v>
       </c>
       <c r="S7">
-        <v>0.3705385217770325</v>
+        <v>0.4414764794969318</v>
       </c>
       <c r="T7">
-        <v>0.3705385217770324</v>
+        <v>0.4414764794969318</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.368329000000001</v>
+        <v>3.368329</v>
       </c>
       <c r="H8">
         <v>10.104987</v>
       </c>
       <c r="I8">
-        <v>0.7134020567608963</v>
+        <v>0.9043398704228307</v>
       </c>
       <c r="J8">
-        <v>0.7134020567608963</v>
+        <v>0.9043398704228307</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>24.953198</v>
+        <v>45.876452</v>
       </c>
       <c r="N8">
-        <v>74.85959399999999</v>
+        <v>137.629356</v>
       </c>
       <c r="O8">
-        <v>0.05996655275686101</v>
+        <v>0.1036214293744632</v>
       </c>
       <c r="P8">
-        <v>0.059966552756861</v>
+        <v>0.1036214293744632</v>
       </c>
       <c r="Q8">
-        <v>84.05058046614201</v>
+        <v>154.526983688708</v>
       </c>
       <c r="R8">
-        <v>756.455224195278</v>
+        <v>1390.742853198372</v>
       </c>
       <c r="S8">
-        <v>0.04278026207360544</v>
+        <v>0.09370899001353054</v>
       </c>
       <c r="T8">
-        <v>0.04278026207360543</v>
+        <v>0.09370899001353056</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.368329000000001</v>
+        <v>3.368329</v>
       </c>
       <c r="H9">
         <v>10.104987</v>
       </c>
       <c r="I9">
-        <v>0.7134020567608963</v>
+        <v>0.9043398704228307</v>
       </c>
       <c r="J9">
-        <v>0.7134020567608963</v>
+        <v>0.9043398704228307</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>71.607325</v>
+        <v>62.68962833333333</v>
       </c>
       <c r="N9">
-        <v>214.821975</v>
+        <v>188.068885</v>
       </c>
       <c r="O9">
-        <v>0.1720839321833696</v>
+        <v>0.1415974560293775</v>
       </c>
       <c r="P9">
-        <v>0.1720839321833696</v>
+        <v>0.1415974560293775</v>
       </c>
       <c r="Q9">
-        <v>241.1970294099251</v>
+        <v>211.1592931143883</v>
       </c>
       <c r="R9">
-        <v>2170.773264689326</v>
+        <v>1900.433638029495</v>
       </c>
       <c r="S9">
-        <v>0.1227650311551184</v>
+        <v>0.1280522250378097</v>
       </c>
       <c r="T9">
-        <v>0.1227650311551184</v>
+        <v>0.1280522250378097</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.188588333333333</v>
+        <v>0.3288616666666667</v>
       </c>
       <c r="H10">
-        <v>3.565765</v>
+        <v>0.9865849999999999</v>
       </c>
       <c r="I10">
-        <v>0.2517394713052097</v>
+        <v>0.08829384452064198</v>
       </c>
       <c r="J10">
-        <v>0.2517394713052097</v>
+        <v>0.08829384452064198</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>103.4275383333333</v>
+        <v>118.0346986666667</v>
       </c>
       <c r="N10">
-        <v>310.282615</v>
+        <v>354.104096</v>
       </c>
       <c r="O10">
-        <v>0.2485530285127421</v>
+        <v>0.2666057129183408</v>
       </c>
       <c r="P10">
-        <v>0.2485530285127421</v>
+        <v>0.2666057129183408</v>
       </c>
       <c r="Q10">
-        <v>122.9327654083861</v>
+        <v>38.81708772801777</v>
       </c>
       <c r="R10">
-        <v>1106.394888675475</v>
+        <v>349.3537895521599</v>
       </c>
       <c r="S10">
-        <v>0.06257060798910641</v>
+        <v>0.0235396433647269</v>
       </c>
       <c r="T10">
-        <v>0.06257060798910639</v>
+        <v>0.0235396433647269</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.188588333333333</v>
+        <v>0.3288616666666667</v>
       </c>
       <c r="H11">
-        <v>3.565765</v>
+        <v>0.9865849999999999</v>
       </c>
       <c r="I11">
-        <v>0.2517394713052097</v>
+        <v>0.08829384452064198</v>
       </c>
       <c r="J11">
-        <v>0.2517394713052097</v>
+        <v>0.08829384452064198</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>648.391617</v>
       </c>
       <c r="O11">
-        <v>0.5193964865470273</v>
+        <v>0.4881754016778185</v>
       </c>
       <c r="P11">
-        <v>0.5193964865470272</v>
+        <v>0.4881754016778186</v>
       </c>
       <c r="Q11">
-        <v>256.890237132445</v>
+        <v>71.077049273105</v>
       </c>
       <c r="R11">
-        <v>2312.012134192005</v>
+        <v>639.6934434579449</v>
       </c>
       <c r="S11">
-        <v>0.1307525969211321</v>
+        <v>0.04310288301454326</v>
       </c>
       <c r="T11">
-        <v>0.1307525969211321</v>
+        <v>0.04310288301454326</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.188588333333333</v>
+        <v>0.3288616666666667</v>
       </c>
       <c r="H12">
-        <v>3.565765</v>
+        <v>0.9865849999999999</v>
       </c>
       <c r="I12">
-        <v>0.2517394713052097</v>
+        <v>0.08829384452064198</v>
       </c>
       <c r="J12">
-        <v>0.2517394713052097</v>
+        <v>0.08829384452064198</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>24.953198</v>
+        <v>45.876452</v>
       </c>
       <c r="N12">
-        <v>74.85959399999999</v>
+        <v>137.629356</v>
       </c>
       <c r="O12">
-        <v>0.05996655275686101</v>
+        <v>0.1036214293744632</v>
       </c>
       <c r="P12">
-        <v>0.059966552756861</v>
+        <v>0.1036214293744632</v>
       </c>
       <c r="Q12">
-        <v>29.65908002215667</v>
+        <v>15.08700646547333</v>
       </c>
       <c r="R12">
-        <v>266.9317201994099</v>
+        <v>135.78305818926</v>
       </c>
       <c r="S12">
-        <v>0.01509594828700815</v>
+        <v>0.009149134374195537</v>
       </c>
       <c r="T12">
-        <v>0.01509594828700815</v>
+        <v>0.009149134374195537</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.188588333333333</v>
+        <v>0.3288616666666667</v>
       </c>
       <c r="H13">
-        <v>3.565765</v>
+        <v>0.9865849999999999</v>
       </c>
       <c r="I13">
-        <v>0.2517394713052097</v>
+        <v>0.08829384452064198</v>
       </c>
       <c r="J13">
-        <v>0.2517394713052097</v>
+        <v>0.08829384452064198</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>71.607325</v>
+        <v>62.68962833333333</v>
       </c>
       <c r="N13">
-        <v>214.821975</v>
+        <v>188.068885</v>
       </c>
       <c r="O13">
-        <v>0.1720839321833696</v>
+        <v>0.1415974560293775</v>
       </c>
       <c r="P13">
-        <v>0.1720839321833696</v>
+        <v>0.1415974560293775</v>
       </c>
       <c r="Q13">
-        <v>85.11163107620834</v>
+        <v>20.61621565641389</v>
       </c>
       <c r="R13">
-        <v>766.004679685875</v>
+        <v>185.545940907725</v>
       </c>
       <c r="S13">
-        <v>0.04332031810796301</v>
+        <v>0.01250218376717629</v>
       </c>
       <c r="T13">
-        <v>0.04332031810796301</v>
+        <v>0.01250218376717629</v>
       </c>
     </row>
   </sheetData>
